--- a/medicine/Handicap/Télévie/Télévie.xlsx
+++ b/medicine/Handicap/Télévie/Télévie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9vie</t>
+          <t>Télévie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Télévie est une opération caritative au profit du F.R.S.-FNRS. Elle est organisée en Belgique francophone et au Grand-Duché de Luxembourg par RTL-TVI depuis 1989. Elle permet de récolter des fonds pour aider la recherche scientifique dans sa lutte contre le cancer et la leucémie, chez l'enfant et chez l'adulte. Elle s'achève par une soirée télévisée.
 La somme récoltée est chaque année versée au F.R.S.-FNRS. Cet organisme évalue les projets scientifiques soumis au Télévie : les projets sélectionnés reçoivent l'intégralité de l'argent récolté. Les frais d'évaluation sont pris en charge par le budget propre du F.R.S.-FNRS.
 En 2019, l'opération a rapporté 13 315 462€, nouveau record.
-En raison de la pandémie de coronavirus, l'édition 2020 est reportée au 5 septembre puis au 19 septembre[1].
+En raison de la pandémie de coronavirus, l'édition 2020 est reportée au 5 septembre puis au 19 septembre.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9vie</t>
+          <t>Télévie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 33 éditions, l'émission a récolté 220 162 344 euros de dons reversés au F.R.S.-FNRS.
 Le cap des 12 millions d'euros récoltés est franchi lors de la 30ème soirée de clôture du 21 avril 2018.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9vie</t>
+          <t>Télévie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Quelques réalisations scientifiques importantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Depuis sa création, l'opération Télévie joue un rôle dans la vulgarisation de la recherche auprès du public. Elle dynamise le développement de la recherche sur la leucémie et le cancer chez l'enfant et chez l'adulte. 
 Elle a permis notamment :
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9vie</t>
+          <t>Télévie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Bichon</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bichon, un petit garçon atteint de leucémie, est devenu, à 2 ans et demi, le symbole du Télévie et du combat contre la maladie.
 Très célèbre en Belgique, il décède la veille de la clôture de l'édition 97 (14 mars 1997). Dix ans après , Bichon reste la seule mascotte du Télévie. Schaerbeek a dénommé une de ses places Bichon.
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9vie</t>
+          <t>Télévie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les produits vendus pour le Télévie 2018 sont :   
 Le sachet de bonbons : 2,5 €
@@ -664,7 +684,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9vie</t>
+          <t>Télévie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,6 +703,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
